--- a/Team-Data/2011-12/3-11-2011-12.xlsx
+++ b/Team-Data/2011-12/3-11-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,28 +733,28 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>17</v>
       </c>
       <c r="G2" t="n">
-        <v>0.585</v>
+        <v>0.575</v>
       </c>
       <c r="H2" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I2" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J2" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.441</v>
+        <v>0.439</v>
       </c>
       <c r="L2" t="n">
         <v>7.2</v>
@@ -696,7 +763,7 @@
         <v>19.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O2" t="n">
         <v>14.9</v>
@@ -705,7 +772,7 @@
         <v>20.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="R2" t="n">
         <v>10.4</v>
@@ -714,16 +781,16 @@
         <v>31.1</v>
       </c>
       <c r="T2" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U2" t="n">
         <v>21.4</v>
       </c>
       <c r="V2" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X2" t="n">
         <v>4.9</v>
@@ -738,13 +805,13 @@
         <v>18.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>93.40000000000001</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
@@ -756,10 +823,10 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>20</v>
@@ -780,7 +847,7 @@
         <v>29</v>
       </c>
       <c r="AP2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ2" t="n">
         <v>26</v>
@@ -789,10 +856,10 @@
         <v>26</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AU2" t="n">
         <v>11</v>
@@ -801,10 +868,10 @@
         <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>18</v>
@@ -819,7 +886,7 @@
         <v>24</v>
       </c>
       <c r="BC2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -848,31 +915,31 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="n">
-        <v>0.525</v>
+        <v>0.538</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J3" t="n">
-        <v>77.09999999999999</v>
+        <v>77</v>
       </c>
       <c r="K3" t="n">
         <v>0.453</v>
       </c>
       <c r="L3" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M3" t="n">
         <v>15.4</v>
@@ -881,34 +948,34 @@
         <v>0.367</v>
       </c>
       <c r="O3" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="P3" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R3" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="S3" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="T3" t="n">
-        <v>38.8</v>
+        <v>38.9</v>
       </c>
       <c r="U3" t="n">
-        <v>23</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X3" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.9</v>
@@ -917,16 +984,16 @@
         <v>20.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.90000000000001</v>
+        <v>90.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
@@ -950,28 +1017,28 @@
         <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO3" t="n">
         <v>27</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
@@ -983,10 +1050,10 @@
         <v>18</v>
       </c>
       <c r="AW3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY3" t="n">
         <v>12</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-13.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1138,7 +1205,7 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1162,10 +1229,10 @@
         <v>21</v>
       </c>
       <c r="AV4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX4" t="n">
         <v>3</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -1323,7 +1390,7 @@
         <v>5</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP5" t="n">
         <v>20</v>
@@ -1347,13 +1414,13 @@
         <v>4</v>
       </c>
       <c r="AW5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ5" t="n">
         <v>2</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -1394,64 +1461,64 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="n">
         <v>23</v>
       </c>
       <c r="G6" t="n">
-        <v>0.41</v>
+        <v>0.395</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
       </c>
       <c r="I6" t="n">
-        <v>34.9</v>
+        <v>34.8</v>
       </c>
       <c r="J6" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L6" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
         <v>19.5</v>
       </c>
       <c r="N6" t="n">
-        <v>0.362</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
-        <v>17.9</v>
+        <v>17.6</v>
       </c>
       <c r="P6" t="n">
-        <v>25.7</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.698</v>
+        <v>0.694</v>
       </c>
       <c r="R6" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="S6" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T6" t="n">
         <v>42.9</v>
       </c>
       <c r="U6" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V6" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
         <v>4.5</v>
@@ -1466,19 +1533,19 @@
         <v>21.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>-3.7</v>
+        <v>-4.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE6" t="n">
         <v>23</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG6" t="n">
         <v>23</v>
@@ -1490,28 +1557,28 @@
         <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
         <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AM6" t="n">
         <v>15</v>
       </c>
       <c r="AN6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO6" t="n">
         <v>9</v>
       </c>
-      <c r="AO6" t="n">
-        <v>8</v>
-      </c>
       <c r="AP6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>4</v>
@@ -1520,16 +1587,16 @@
         <v>20</v>
       </c>
       <c r="AT6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU6" t="n">
         <v>19</v>
       </c>
       <c r="AV6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX6" t="n">
         <v>24</v>
@@ -1541,13 +1608,13 @@
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BC6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -1657,22 +1724,22 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1681,7 +1748,7 @@
         <v>6</v>
       </c>
       <c r="AM7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
         <v>21</v>
@@ -1693,7 +1760,7 @@
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR7" t="n">
         <v>20</v>
@@ -1726,10 +1793,10 @@
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
         <v>23</v>
       </c>
       <c r="F8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>0.548</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
         <v>81.8</v>
       </c>
       <c r="K8" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L8" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M8" t="n">
-        <v>20.6</v>
+        <v>20.9</v>
       </c>
       <c r="N8" t="n">
-        <v>0.323</v>
+        <v>0.322</v>
       </c>
       <c r="O8" t="n">
         <v>20.8</v>
@@ -1797,13 +1864,13 @@
         <v>28.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.735</v>
+        <v>0.734</v>
       </c>
       <c r="R8" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>32.6</v>
       </c>
       <c r="T8" t="n">
         <v>43.6</v>
@@ -1812,10 +1879,10 @@
         <v>23.4</v>
       </c>
       <c r="V8" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W8" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X8" t="n">
         <v>5.4</v>
@@ -1830,16 +1897,16 @@
         <v>23.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.8</v>
+        <v>104.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
         <v>12</v>
@@ -1863,7 +1930,7 @@
         <v>14</v>
       </c>
       <c r="AM8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN8" t="n">
         <v>23</v>
@@ -1878,19 +1945,19 @@
         <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
       </c>
       <c r="AV8" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
@@ -1911,7 +1978,7 @@
         <v>1</v>
       </c>
       <c r="BC8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-5.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>24</v>
@@ -2030,13 +2097,13 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK9" t="n">
         <v>24</v>
@@ -2087,7 +2154,7 @@
         <v>11</v>
       </c>
       <c r="BA9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -2122,73 +2189,73 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F10" t="n">
         <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>0.447</v>
+        <v>0.432</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J10" t="n">
-        <v>81.5</v>
+        <v>81.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L10" t="n">
         <v>8</v>
       </c>
       <c r="M10" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.388</v>
+        <v>0.385</v>
       </c>
       <c r="O10" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="P10" t="n">
         <v>20.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.758</v>
+        <v>0.756</v>
       </c>
       <c r="R10" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S10" t="n">
         <v>29.9</v>
       </c>
       <c r="T10" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U10" t="n">
         <v>22.1</v>
       </c>
       <c r="V10" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W10" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X10" t="n">
         <v>5.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="AA10" t="n">
         <v>17.8</v>
@@ -2197,7 +2264,7 @@
         <v>97.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.7</v>
+        <v>-1.9</v>
       </c>
       <c r="AD10" t="n">
         <v>30</v>
@@ -2209,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>16</v>
@@ -2218,7 +2285,7 @@
         <v>8</v>
       </c>
       <c r="AJ10" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
         <v>6</v>
@@ -2230,10 +2297,10 @@
         <v>7</v>
       </c>
       <c r="AN10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2242,10 +2309,10 @@
         <v>14</v>
       </c>
       <c r="AR10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT10" t="n">
         <v>26</v>
@@ -2254,13 +2321,13 @@
         <v>6</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY10" t="n">
         <v>2</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -2304,46 +2371,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" t="n">
         <v>22</v>
       </c>
       <c r="F11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="n">
-        <v>0.524</v>
+        <v>0.537</v>
       </c>
       <c r="H11" t="n">
         <v>48.6</v>
       </c>
       <c r="I11" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J11" t="n">
-        <v>83</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.451</v>
+        <v>0.449</v>
       </c>
       <c r="L11" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M11" t="n">
         <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.358</v>
+        <v>0.355</v>
       </c>
       <c r="O11" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.788</v>
+        <v>0.791</v>
       </c>
       <c r="R11" t="n">
         <v>11.5</v>
@@ -2355,10 +2422,10 @@
         <v>41.9</v>
       </c>
       <c r="U11" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V11" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W11" t="n">
         <v>7.3</v>
@@ -2370,19 +2437,19 @@
         <v>4.9</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.1</v>
+        <v>0.1</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
@@ -2391,22 +2458,22 @@
         <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>4</v>
       </c>
       <c r="AI11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
         <v>5</v>
       </c>
       <c r="AK11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>14</v>
@@ -2415,10 +2482,10 @@
         <v>12</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
@@ -2427,19 +2494,19 @@
         <v>15</v>
       </c>
       <c r="AS11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU11" t="n">
         <v>18</v>
       </c>
-      <c r="AT11" t="n">
+      <c r="AV11" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW11" t="n">
         <v>18</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>21</v>
       </c>
       <c r="AX11" t="n">
         <v>21</v>
@@ -2448,7 +2515,7 @@
         <v>14</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -2486,100 +2553,100 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
         <v>23</v>
       </c>
       <c r="F12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G12" t="n">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J12" t="n">
         <v>81</v>
       </c>
       <c r="K12" t="n">
-        <v>0.428</v>
+        <v>0.426</v>
       </c>
       <c r="L12" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M12" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="N12" t="n">
-        <v>0.359</v>
+        <v>0.365</v>
       </c>
       <c r="O12" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="P12" t="n">
-        <v>26.2</v>
+        <v>26.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.775</v>
+        <v>0.773</v>
       </c>
       <c r="R12" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S12" t="n">
-        <v>31.1</v>
+        <v>31.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="V12" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W12" t="n">
         <v>8.4</v>
       </c>
       <c r="X12" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z12" t="n">
         <v>21.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="AB12" t="n">
         <v>95.09999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AD12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>6</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>9</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ12" t="n">
         <v>19</v>
@@ -2588,19 +2655,19 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="n">
         <v>22</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ12" t="n">
         <v>6</v>
@@ -2609,10 +2676,10 @@
         <v>6</v>
       </c>
       <c r="AS12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU12" t="n">
         <v>30</v>
@@ -2624,7 +2691,7 @@
         <v>9</v>
       </c>
       <c r="AX12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY12" t="n">
         <v>27</v>
@@ -2633,13 +2700,13 @@
         <v>26</v>
       </c>
       <c r="BA12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB12" t="n">
         <v>15</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -2668,22 +2735,22 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
         <v>23</v>
       </c>
       <c r="F13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>0.59</v>
+        <v>0.605</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J13" t="n">
         <v>81.40000000000001</v>
@@ -2695,25 +2762,25 @@
         <v>7.8</v>
       </c>
       <c r="M13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.361</v>
+        <v>0.362</v>
       </c>
       <c r="O13" t="n">
         <v>16.9</v>
       </c>
       <c r="P13" t="n">
-        <v>24.5</v>
+        <v>24.2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.697</v>
       </c>
       <c r="R13" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="S13" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T13" t="n">
         <v>42.9</v>
@@ -2728,34 +2795,34 @@
         <v>7.8</v>
       </c>
       <c r="X13" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>98.2</v>
+        <v>98.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG13" t="n">
         <v>6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>9</v>
       </c>
       <c r="AH13" t="n">
         <v>5</v>
@@ -2767,7 +2834,7 @@
         <v>16</v>
       </c>
       <c r="AK13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2779,16 +2846,16 @@
         <v>10</v>
       </c>
       <c r="AO13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP13" t="n">
         <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS13" t="n">
         <v>15</v>
@@ -2821,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="BC13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
         <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>0.61</v>
+        <v>0.6</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
@@ -2868,10 +2935,10 @@
         <v>35.9</v>
       </c>
       <c r="J14" t="n">
-        <v>79.2</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L14" t="n">
         <v>5.2</v>
@@ -2880,7 +2947,7 @@
         <v>17.1</v>
       </c>
       <c r="N14" t="n">
-        <v>0.306</v>
+        <v>0.301</v>
       </c>
       <c r="O14" t="n">
         <v>17.4</v>
@@ -2889,34 +2956,34 @@
         <v>23.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.746</v>
+        <v>0.748</v>
       </c>
       <c r="R14" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S14" t="n">
         <v>34</v>
       </c>
       <c r="T14" t="n">
-        <v>45.7</v>
+        <v>45.8</v>
       </c>
       <c r="U14" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V14" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W14" t="n">
         <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z14" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA14" t="n">
         <v>20</v>
@@ -2928,28 +2995,28 @@
         <v>2.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI14" t="n">
         <v>16</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AK14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL14" t="n">
         <v>24</v>
@@ -2958,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO14" t="n">
         <v>10</v>
@@ -2985,10 +3052,10 @@
         <v>17</v>
       </c>
       <c r="AW14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -2997,13 +3064,13 @@
         <v>5</v>
       </c>
       <c r="BA14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB14" t="n">
         <v>19</v>
       </c>
       <c r="BC14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -3032,73 +3099,73 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>16</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J15" t="n">
-        <v>81.40000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="N15" t="n">
         <v>0.33</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P15" t="n">
         <v>22.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.758</v>
+        <v>0.761</v>
       </c>
       <c r="R15" t="n">
         <v>11.8</v>
       </c>
       <c r="S15" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T15" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U15" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="V15" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W15" t="n">
         <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA15" t="n">
         <v>19.8</v>
@@ -3110,28 +3177,28 @@
         <v>2.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
         <v>8</v>
       </c>
       <c r="AF15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
         <v>15</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>14</v>
       </c>
       <c r="AL15" t="n">
         <v>29</v>
@@ -3143,7 +3210,7 @@
         <v>20</v>
       </c>
       <c r="AO15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP15" t="n">
         <v>13</v>
@@ -3152,28 +3219,28 @@
         <v>13</v>
       </c>
       <c r="AR15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AU15" t="n">
         <v>24</v>
       </c>
       <c r="AV15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ15" t="n">
         <v>10</v>
@@ -3182,10 +3249,10 @@
         <v>16</v>
       </c>
       <c r="BB15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>8.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>1</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
         <v>1</v>
@@ -3328,7 +3395,7 @@
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ16" t="n">
         <v>5</v>
@@ -3346,13 +3413,13 @@
         <v>14</v>
       </c>
       <c r="AV16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AW16" t="n">
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -3396,85 +3463,85 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F17" t="n">
         <v>24</v>
       </c>
       <c r="G17" t="n">
-        <v>0.415</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J17" t="n">
-        <v>85</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.427</v>
+        <v>0.426</v>
       </c>
       <c r="L17" t="n">
         <v>6.7</v>
       </c>
       <c r="M17" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="N17" t="n">
         <v>0.335</v>
       </c>
       <c r="O17" t="n">
-        <v>17</v>
+        <v>16.7</v>
       </c>
       <c r="P17" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R17" t="n">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="S17" t="n">
         <v>28.4</v>
       </c>
       <c r="T17" t="n">
-        <v>41.3</v>
+        <v>41.5</v>
       </c>
       <c r="U17" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V17" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X17" t="n">
         <v>4.9</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z17" t="n">
         <v>19.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.40000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
@@ -3507,10 +3574,10 @@
         <v>15</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
@@ -3522,28 +3589,28 @@
         <v>28</v>
       </c>
       <c r="AT17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
         <v>7</v>
       </c>
       <c r="AW17" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
       </c>
       <c r="BA17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
         <v>13</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3741,7 @@
         <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK18" t="n">
         <v>22</v>
@@ -3689,10 +3756,10 @@
         <v>17</v>
       </c>
       <c r="AO18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ18" t="n">
         <v>7</v>
@@ -3710,16 +3777,16 @@
         <v>25</v>
       </c>
       <c r="AV18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX18" t="n">
         <v>28</v>
       </c>
       <c r="AY18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ18" t="n">
         <v>8</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -3844,7 +3911,7 @@
         <v>25</v>
       </c>
       <c r="AF19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
         <v>26</v>
@@ -3880,7 +3947,7 @@
         <v>8</v>
       </c>
       <c r="AR19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AS19" t="n">
         <v>30</v>
@@ -3889,10 +3956,10 @@
         <v>29</v>
       </c>
       <c r="AU19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW19" t="n">
         <v>22</v>
@@ -3907,7 +3974,7 @@
         <v>16</v>
       </c>
       <c r="BA19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB19" t="n">
         <v>25</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
@@ -4032,10 +4099,10 @@
         <v>28</v>
       </c>
       <c r="AH20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4053,7 +4120,7 @@
         <v>25</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
         <v>24</v>
@@ -4062,13 +4129,13 @@
         <v>18</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS20" t="n">
         <v>21</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
@@ -4077,7 +4144,7 @@
         <v>22</v>
       </c>
       <c r="AW20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX20" t="n">
         <v>22</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>0.439</v>
+        <v>0.45</v>
       </c>
       <c r="H21" t="n">
         <v>48.4</v>
       </c>
       <c r="I21" t="n">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="J21" t="n">
-        <v>81.3</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K21" t="n">
-        <v>0.435</v>
+        <v>0.436</v>
       </c>
       <c r="L21" t="n">
         <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="N21" t="n">
-        <v>0.313</v>
+        <v>0.311</v>
       </c>
       <c r="O21" t="n">
         <v>18.9</v>
@@ -4163,10 +4230,10 @@
         <v>25.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R21" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="S21" t="n">
         <v>30.6</v>
@@ -4175,7 +4242,7 @@
         <v>41.9</v>
       </c>
       <c r="U21" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="V21" t="n">
         <v>16.7</v>
@@ -4190,19 +4257,19 @@
         <v>5.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA21" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB21" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE21" t="n">
         <v>20</v>
@@ -4211,25 +4278,25 @@
         <v>21</v>
       </c>
       <c r="AG21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL21" t="n">
         <v>10</v>
       </c>
       <c r="AM21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AN21" t="n">
         <v>27</v>
@@ -4241,7 +4308,7 @@
         <v>7</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AR21" t="n">
         <v>17</v>
@@ -4250,10 +4317,10 @@
         <v>17</v>
       </c>
       <c r="AT21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV21" t="n">
         <v>29</v>
@@ -4274,7 +4341,7 @@
         <v>2</v>
       </c>
       <c r="BB21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC21" t="n">
         <v>17</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,7 +4463,7 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI22" t="n">
         <v>10</v>
@@ -4450,7 +4517,7 @@
         <v>8</v>
       </c>
       <c r="AZ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
       </c>
       <c r="G23" t="n">
-        <v>0.643</v>
+        <v>0.634</v>
       </c>
       <c r="H23" t="n">
         <v>48.4</v>
@@ -4521,13 +4588,13 @@
         <v>0.388</v>
       </c>
       <c r="O23" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="P23" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.652</v>
+        <v>0.648</v>
       </c>
       <c r="R23" t="n">
         <v>11.3</v>
@@ -4539,7 +4606,7 @@
         <v>43.4</v>
       </c>
       <c r="U23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V23" t="n">
         <v>15.2</v>
@@ -4551,22 +4618,22 @@
         <v>4.2</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4596,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP23" t="n">
         <v>10</v>
@@ -4617,10 +4684,10 @@
         <v>8</v>
       </c>
       <c r="AU23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW23" t="n">
         <v>28</v>
@@ -4638,10 +4705,10 @@
         <v>8</v>
       </c>
       <c r="BB23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -4670,61 +4737,61 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F24" t="n">
         <v>17</v>
       </c>
       <c r="G24" t="n">
-        <v>0.595</v>
+        <v>0.585</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.8</v>
+        <v>37.7</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L24" t="n">
         <v>5.6</v>
       </c>
       <c r="M24" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.369</v>
+        <v>0.366</v>
       </c>
       <c r="O24" t="n">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="P24" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.738</v>
+        <v>0.736</v>
       </c>
       <c r="R24" t="n">
         <v>10.5</v>
       </c>
       <c r="S24" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T24" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U24" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V24" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="W24" t="n">
         <v>8.5</v>
@@ -4742,13 +4809,13 @@
         <v>16.5</v>
       </c>
       <c r="AB24" t="n">
-        <v>94.90000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE24" t="n">
         <v>6</v>
@@ -4757,10 +4824,10 @@
         <v>10</v>
       </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
@@ -4769,16 +4836,16 @@
         <v>3</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM24" t="n">
         <v>24</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4790,16 +4857,16 @@
         <v>21</v>
       </c>
       <c r="AR24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS24" t="n">
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>-1.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>18</v>
@@ -4948,10 +5015,10 @@
         <v>12</v>
       </c>
       <c r="AJ25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK25" t="n">
         <v>12</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>15</v>
       </c>
       <c r="AL25" t="n">
         <v>17</v>
@@ -4969,7 +5036,7 @@
         <v>29</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>3.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5133,7 +5200,7 @@
         <v>6</v>
       </c>
       <c r="AK26" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5145,7 +5212,7 @@
         <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP26" t="n">
         <v>17</v>
@@ -5154,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS26" t="n">
         <v>16</v>
@@ -5172,13 +5239,13 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY26" t="n">
         <v>11</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA26" t="n">
         <v>9</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -5216,55 +5283,55 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" t="n">
         <v>14</v>
       </c>
       <c r="F27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" t="n">
-        <v>0.341</v>
+        <v>0.35</v>
       </c>
       <c r="H27" t="n">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I27" t="n">
         <v>35.8</v>
       </c>
       <c r="J27" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.419</v>
+        <v>0.418</v>
       </c>
       <c r="L27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.321</v>
+        <v>0.32</v>
       </c>
       <c r="O27" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P27" t="n">
-        <v>23.5</v>
+        <v>23.7</v>
       </c>
       <c r="Q27" t="n">
         <v>0.75</v>
       </c>
       <c r="R27" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="S27" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T27" t="n">
-        <v>43.1</v>
+        <v>43.3</v>
       </c>
       <c r="U27" t="n">
         <v>18</v>
@@ -5279,28 +5346,28 @@
         <v>4.6</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z27" t="n">
         <v>19.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC27" t="n">
         <v>-6.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG27" t="n">
         <v>25</v>
@@ -5318,7 +5385,7 @@
         <v>29</v>
       </c>
       <c r="AL27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM27" t="n">
         <v>9</v>
@@ -5327,7 +5394,7 @@
         <v>24</v>
       </c>
       <c r="AO27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP27" t="n">
         <v>11</v>
@@ -5351,7 +5418,7 @@
         <v>15</v>
       </c>
       <c r="AW27" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -5476,10 +5543,10 @@
         <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF28" t="n">
         <v>4</v>
@@ -5488,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="AH28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI28" t="n">
         <v>4</v>
@@ -5503,13 +5570,13 @@
         <v>3</v>
       </c>
       <c r="AM28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
         <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5524,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU28" t="n">
         <v>5</v>
@@ -5539,13 +5606,13 @@
         <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB28" t="n">
         <v>4</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -5580,85 +5647,85 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E29" t="n">
         <v>13</v>
       </c>
       <c r="F29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.317</v>
+        <v>0.325</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>34.2</v>
+        <v>34.1</v>
       </c>
       <c r="J29" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L29" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M29" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="N29" t="n">
         <v>0.332</v>
       </c>
       <c r="O29" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P29" t="n">
         <v>21.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.764</v>
+        <v>0.763</v>
       </c>
       <c r="R29" t="n">
         <v>10.2</v>
       </c>
       <c r="S29" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T29" t="n">
         <v>41.6</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W29" t="n">
         <v>7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
       </c>
       <c r="Z29" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB29" t="n">
-        <v>90.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="AC29" t="n">
         <v>-4</v>
       </c>
       <c r="AD29" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>27</v>
@@ -5670,16 +5737,16 @@
         <v>27</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ29" t="n">
         <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>23</v>
@@ -5694,7 +5761,7 @@
         <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>10</v>
@@ -5706,16 +5773,16 @@
         <v>12</v>
       </c>
       <c r="AT29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU29" t="n">
         <v>13</v>
       </c>
       <c r="AV29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX29" t="n">
         <v>16</v>
@@ -5733,7 +5800,7 @@
         <v>27</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -5840,7 +5907,7 @@
         <v>-1.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5852,16 +5919,16 @@
         <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ30" t="n">
         <v>7</v>
       </c>
       <c r="AK30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5879,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR30" t="n">
         <v>5</v>
@@ -5897,7 +5964,7 @@
         <v>5</v>
       </c>
       <c r="AW30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6085,7 +6152,7 @@
         <v>2</v>
       </c>
       <c r="AY31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ31" t="n">
         <v>27</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-11-2011-12</t>
+          <t>2012-03-11</t>
         </is>
       </c>
     </row>
